--- a/Team-Data/2007-08/3-26-2007-08.xlsx
+++ b/Team-Data/2007-08/3-26-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.437</v>
+        <v>0.429</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J2" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P2" t="n">
         <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
@@ -735,16 +802,16 @@
         <v>20.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -786,19 +853,19 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -810,16 +877,16 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="n">
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -848,34 +915,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
         <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
         <v>0.38</v>
@@ -890,10 +957,10 @@
         <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>41.4</v>
@@ -914,19 +981,19 @@
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
         <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
         <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
         <v>18.2</v>
@@ -1075,16 +1142,16 @@
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,13 +1190,13 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
@@ -1159,10 +1226,10 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1180,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,22 +1303,22 @@
         <v>0.43</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P5" t="n">
         <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R5" t="n">
         <v>13.4</v>
@@ -1269,7 +1336,7 @@
         <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
@@ -1284,13 +1351,13 @@
         <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
@@ -1344,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1362,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J6" t="n">
         <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>7.1</v>
@@ -1424,28 +1491,28 @@
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
         <v>44.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.1</v>
@@ -1463,7 +1530,7 @@
         <v>21.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
         <v>97.09999999999999</v>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,13 +1551,13 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1502,40 +1569,40 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1723,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1863,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.704</v>
+        <v>0.714</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.764</v>
@@ -1991,13 +2058,13 @@
         <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>5.5</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2048,25 +2115,25 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2215,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,10 +2389,10 @@
         <v>36.8</v>
       </c>
       <c r="J11" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
         <v>7.1</v>
@@ -2334,25 +2401,25 @@
         <v>20.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.723</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S11" t="n">
         <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
         <v>21.6</v>
@@ -2361,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2370,43 +2437,43 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB11" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2421,19 +2488,19 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2445,16 +2512,16 @@
         <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.403</v>
+        <v>0.408</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2510,13 +2577,13 @@
         <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
         <v>18.8</v>
@@ -2525,7 +2592,7 @@
         <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
@@ -2534,13 +2601,13 @@
         <v>31.9</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
@@ -2552,19 +2619,19 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2618,13 +2685,13 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
         <v>78.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
@@ -2719,7 +2786,7 @@
         <v>39.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
@@ -2737,16 +2804,16 @@
         <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2791,13 +2858,13 @@
         <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -2850,40 +2917,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.681</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
         <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
         <v>27.9</v>
@@ -2895,10 +2962,10 @@
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>24</v>
@@ -2922,13 +2989,13 @@
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.2</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2952,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
         <v>8</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254</v>
+        <v>0.257</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
         <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.452</v>
@@ -3059,16 +3126,16 @@
         <v>7.6</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
         <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
         <v>0.729</v>
@@ -3077,16 +3144,16 @@
         <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
         <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>6.2</v>
@@ -3098,19 +3165,19 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>28</v>
@@ -3167,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3176,13 +3243,13 @@
         <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,28 +3299,28 @@
         <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M16" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
         <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
@@ -3262,13 +3329,13 @@
         <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
       </c>
       <c r="V16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>7.1</v>
@@ -3292,7 +3359,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3313,16 +3380,16 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3343,13 +3410,13 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3420,13 +3487,13 @@
         <v>0.447</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
@@ -3438,10 +3505,10 @@
         <v>0.735</v>
       </c>
       <c r="R17" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>41.2</v>
@@ -3462,31 +3529,31 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3528,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3546,10 +3613,10 @@
         <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.257</v>
+        <v>0.261</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,37 +3663,37 @@
         <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
@@ -3644,25 +3711,25 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3677,13 +3744,13 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3698,16 +3765,16 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3760,52 +3827,52 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
         <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.431</v>
+        <v>0.423</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J19" t="n">
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
         <v>42.3</v>
@@ -3814,7 +3881,7 @@
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>6.4</v>
@@ -3829,16 +3896,16 @@
         <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.7</v>
+        <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3865,10 +3932,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3895,13 +3962,13 @@
         <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="n">
         <v>20.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4011,46 +4078,46 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF20" t="n">
         <v>3</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2</v>
       </c>
       <c r="AG20" t="n">
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4071,13 +4138,13 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>0.282</v>
+        <v>0.271</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4160,19 +4227,19 @@
         <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.723</v>
+        <v>0.725</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
         <v>18.3</v>
@@ -4181,7 +4248,7 @@
         <v>14.6</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X21" t="n">
         <v>2.6</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4235,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -4244,13 +4311,13 @@
         <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4441,16 +4508,16 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
         <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.32</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
         <v>18.6</v>
       </c>
       <c r="P23" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.705</v>
@@ -4533,25 +4600,25 @@
         <v>13.2</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
@@ -4560,13 +4627,13 @@
         <v>21.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>18</v>
@@ -4638,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>47</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.499</v>
@@ -4697,7 +4764,7 @@
         <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N24" t="n">
         <v>0.391</v>
@@ -4706,25 +4773,25 @@
         <v>18.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
         <v>26.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W24" t="n">
         <v>6.6</v>
@@ -4742,31 +4809,31 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4793,10 +4860,10 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -4951,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
         <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>0.451</v>
+        <v>0.443</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,28 +5119,28 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
         <v>27.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
         <v>10.4</v>
@@ -5082,10 +5149,10 @@
         <v>30</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
         <v>15.9</v>
@@ -5103,16 +5170,16 @@
         <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,28 +5191,28 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP26" t="n">
         <v>6</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.454</v>
@@ -5246,31 +5313,31 @@
         <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
         <v>41.2</v>
       </c>
       <c r="U27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5291,28 +5358,28 @@
         <v>95.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5354,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
@@ -5363,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
-        <v>0.236</v>
+        <v>0.239</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5428,7 +5495,7 @@
         <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O28" t="n">
         <v>17.7</v>
@@ -5437,34 +5504,34 @@
         <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
         <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
         <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,67 +5665,67 @@
         <v>38.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.402</v>
       </c>
       <c r="O29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P29" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA29" t="n">
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC29" t="n">
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -5670,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5724,13 +5791,13 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5870,10 +5937,10 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5971,7 +6038,7 @@
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.346</v>
@@ -5980,25 +6047,25 @@
         <v>19.1</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6007,7 +6074,7 @@
         <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
         <v>19.7</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6040,7 +6107,7 @@
         <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6049,28 +6116,28 @@
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6085,13 +6152,13 @@
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2007-08</t>
+          <t>2008-03-26</t>
         </is>
       </c>
     </row>
